--- a/Group Project/Define/user-stories.xlsx
+++ b/Group Project/Define/user-stories.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25906"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="123" documentId="11_DE6F24AB99E37EBD2710F34E2438F7CA52C4D6D8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11F4A6C8-2959-4F25-80CB-D0F0C6D66F3F}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys.sharepoint.com/sites/Jumbogroup2/Gedeelde documenten/General/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58C9DE89-B47A-442B-87E2-7EA57763C5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -28,9 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
-    <t>MOSCOW</t>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>Priority</t>
   </si>
   <si>
     <t>US-01</t>
@@ -39,13 +59,13 @@
     <t>As a user I want to</t>
   </si>
   <si>
-    <t>set my diet/alergy preferences</t>
+    <t>set my diets and allergies</t>
   </si>
   <si>
-    <t xml:space="preserve"> so that </t>
+    <t xml:space="preserve">so that </t>
   </si>
   <si>
-    <t>the system knows my needs</t>
+    <t>the system knows my preferences</t>
   </si>
   <si>
     <t>MUST</t>
@@ -57,85 +77,85 @@
     <t>scan a product</t>
   </si>
   <si>
-    <t>it is added to my cart</t>
+    <t>I receive warnings and it is added to my cart</t>
   </si>
   <si>
     <t>US-03</t>
   </si>
   <si>
-    <t>scan a product by following my shopping list</t>
+    <t>receive warnings when a scanned product does not match my preferences</t>
   </si>
   <si>
-    <t>it is marked on my shopping list</t>
+    <t>I dont have to read the ingredients on the packaging</t>
+  </si>
+  <si>
+    <t>US-04</t>
+  </si>
+  <si>
+    <t>view my basket</t>
+  </si>
+  <si>
+    <t>so that</t>
+  </si>
+  <si>
+    <t>I can see my scanned products</t>
+  </si>
+  <si>
+    <t>US-05</t>
+  </si>
+  <si>
+    <t>edit products in my basket</t>
+  </si>
+  <si>
+    <t>I can add or remove products</t>
+  </si>
+  <si>
+    <t>SHOULD</t>
+  </si>
+  <si>
+    <t>US-06</t>
+  </si>
+  <si>
+    <t>receive recommended alternatives</t>
+  </si>
+  <si>
+    <t>I can swap a harmful product for a safe one</t>
+  </si>
+  <si>
+    <t>US-07</t>
+  </si>
+  <si>
+    <t>scan a product from my shopping list</t>
+  </si>
+  <si>
+    <t>it is marked as "done" on my shopping list</t>
   </si>
   <si>
     <t>COULD</t>
   </si>
   <si>
-    <t>US-04</t>
+    <t>US-08</t>
   </si>
   <si>
-    <t>be notified if a scanned product does not fit my needs</t>
-  </si>
-  <si>
-    <t>I dont have to read the ingredients on the packaging</t>
-  </si>
-  <si>
-    <t>US-05</t>
-  </si>
-  <si>
-    <t>see and edit my shopping cart</t>
-  </si>
-  <si>
-    <t>I can make sure I scanned all items correctly</t>
-  </si>
-  <si>
-    <t>US-06</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">get recommendations that match my needs </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>(opt-in)</t>
-    </r>
-  </si>
-  <si>
-    <t>I can be inspired to cook and buy something different that still fits in my diet</t>
-  </si>
-  <si>
-    <t>SHOULD</t>
-  </si>
-  <si>
-    <t>US-07</t>
-  </si>
-  <si>
-    <t>pay from my mobile device as I walk out</t>
+    <t>pay using my mobile banking app</t>
   </si>
   <si>
     <t>I can save time at checkout</t>
   </si>
   <si>
-    <t>US-08</t>
+    <t>US-09</t>
   </si>
   <si>
-    <t>not see products in the online catalog that don't match my needs</t>
+    <t>hide products in the online catalog that don't match my needs</t>
   </si>
   <si>
     <t>my shopping experience is personalized</t>
   </si>
   <si>
-    <t>US-09</t>
+    <t>WONT</t>
+  </si>
+  <si>
+    <t>US-10</t>
   </si>
   <si>
     <t>see where a specific product is located via the app</t>
@@ -144,10 +164,7 @@
     <t>I won't have to thoroughly search the store for one item</t>
   </si>
   <si>
-    <t>WONT</t>
-  </si>
-  <si>
-    <t>US-10</t>
+    <t>US-11</t>
   </si>
   <si>
     <t>navigate the store via app based on my shopping list</t>
@@ -160,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,27 +206,227 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF595959"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -218,12 +435,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,6 +471,3538 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent2_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent2" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{C42EEAFD-DF16-4D8C-8803-AF1824664E34}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hList1" loCatId="list" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent2_2" csCatId="accent2" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B446391C-BC9C-4CCC-A184-0AD9776A6F4B}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t>MUST</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{09E1E16B-757A-424C-B22F-F49869C295BC}" type="parTrans" cxnId="{ABE4FFC6-2689-4C1E-A669-ABC3F61DE60C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{67E2418C-995E-47C5-8754-BC0D0811F864}" type="sibTrans" cxnId="{ABE4FFC6-2689-4C1E-A669-ABC3F61DE60C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{83B2A943-28C0-45B7-B81E-4DA3C1B6A33B}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t>Set preferences</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3551147F-044F-4CD6-80DF-FDA5DE22B349}" type="parTrans" cxnId="{16316C42-CAC4-48C7-B843-FBDAE01BC8FA}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8D3FEB8B-4D90-4063-999F-9319B8895376}" type="sibTrans" cxnId="{16316C42-CAC4-48C7-B843-FBDAE01BC8FA}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{07D52DD3-A326-4608-AEF4-E373F7490592}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t>Scan Product</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{058CCD2F-0E6A-4E1D-A08D-8982EB5B1CA2}" type="parTrans" cxnId="{9B3EBC33-7941-43F1-954E-8B398FD31C64}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{447318B2-6026-4FDD-ADC7-0325667F597A}" type="sibTrans" cxnId="{9B3EBC33-7941-43F1-954E-8B398FD31C64}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{53678EDF-39B1-463F-A016-563E204CFAF1}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t>SHOULD</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{699682FD-8032-41B3-AAA0-A2448B7DB7C3}" type="parTrans" cxnId="{7013E60E-D97B-47ED-B724-5C5B54F8867B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E6B63DD6-C06D-4E3A-9CDF-74BCD8EC30A6}" type="sibTrans" cxnId="{7013E60E-D97B-47ED-B724-5C5B54F8867B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4E63BFE6-36E1-4E89-9436-774CF5739D5A}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t>Edit basket</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{75F0D908-548C-4F57-BA37-40CCD8231F16}" type="parTrans" cxnId="{C76E1EDD-DF80-41EB-8553-9B5145BB3200}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A5C9728A-CDDA-483F-92D3-8CDD1D03360A}" type="sibTrans" cxnId="{C76E1EDD-DF80-41EB-8553-9B5145BB3200}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{16D41ED0-433C-4F69-8547-262EA774B788}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t>Recommendations</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FF3E9AD2-31DD-401B-B443-1F3FC0085925}" type="parTrans" cxnId="{6EB3B38C-D699-4650-8E2B-BEC634F96F12}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B1EAB3F9-2286-471C-BFA9-B3A7C02CDE31}" type="sibTrans" cxnId="{6EB3B38C-D699-4650-8E2B-BEC634F96F12}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{45165D7B-D753-4A97-BF2F-B5B133AC35B7}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t>COULD</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EFA62CA2-49E9-48E8-A0ED-457E74B645EF}" type="parTrans" cxnId="{08DEA7AA-08E9-4E74-BD12-C132482AF6C3}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4856D525-BE4C-47D2-BDFF-4675D12D8674}" type="sibTrans" cxnId="{08DEA7AA-08E9-4E74-BD12-C132482AF6C3}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{64D0B83E-818B-4B2F-819A-CD561AA562C8}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t>Shopping list</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CF08D122-86DB-4A2E-89C3-1C811527C501}" type="parTrans" cxnId="{99E4C3A8-3CBC-40E9-9AAA-1C121C5DDAB9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DA4A54DE-14D6-429B-993D-CCFF358DBE95}" type="sibTrans" cxnId="{99E4C3A8-3CBC-40E9-9AAA-1C121C5DDAB9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5FF7C39F-3345-41DB-8976-D450411524DB}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t>Payment option</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{00071798-4E2A-4910-B2C5-55219587BCEB}" type="parTrans" cxnId="{847ACDEC-B43D-432B-862C-45A9E22C2D62}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BDE3B723-D02E-4AAE-9CFD-310469B2ECD7}" type="sibTrans" cxnId="{847ACDEC-B43D-432B-862C-45A9E22C2D62}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{614BE0C4-889D-4321-9034-BD68CFDE51F4}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t>WOULD NOT</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C3939D91-E577-4E7D-B664-4FF4AA74C13B}" type="parTrans" cxnId="{13D06101-A516-47D0-B58C-04F164073088}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{30C5556F-84E6-4ADF-90F4-5EEDF085FFB1}" type="sibTrans" cxnId="{13D06101-A516-47D0-B58C-04F164073088}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A0B7F971-0952-4EEF-BB06-815FB703109D}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t>Warnings</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{742877F0-F4DD-403A-9E7B-FDE40B810F3A}" type="parTrans" cxnId="{34F872A0-FD0A-4B72-987B-B9422EC4E59E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4602781B-1F85-4DB1-A4E2-B9FD40CDD18A}" type="sibTrans" cxnId="{34F872A0-FD0A-4B72-987B-B9422EC4E59E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8AFBADF3-4607-464F-A08B-80CCC111A593}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t>View basket</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{37BE6B72-791F-4987-BE60-F7FA39239B7B}" type="parTrans" cxnId="{45D1C7B3-28B1-4991-9696-89C4476DC536}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D72FD524-C240-488B-9F91-5D85C1EC2C89}" type="sibTrans" cxnId="{45D1C7B3-28B1-4991-9696-89C4476DC536}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AFCE5507-DF9D-46D1-B5E0-CDB41FC4858E}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t>Hide product categories</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E884CAF5-691B-4064-885A-C957DA443389}" type="parTrans" cxnId="{9724B959-E91D-4B78-8590-B75DBEBD3FAD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2C480605-D0A3-4391-AABE-007CA2201F14}" type="sibTrans" cxnId="{9724B959-E91D-4B78-8590-B75DBEBD3FAD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1B0CC25B-3EC5-4CB1-B60C-0CB3A870F546}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t>Locate products</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{76623D5F-7EB0-4068-9DB8-D4CE4F813862}" type="parTrans" cxnId="{5CEBAAE0-5549-4903-9806-3722CFF1918A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A88BB6C5-0CB2-45F6-8C96-FD997FA6644E}" type="sibTrans" cxnId="{5CEBAAE0-5549-4903-9806-3722CFF1918A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F6B1B2C7-DFA9-4153-9572-17D4E38F829B}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t>Navigation</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9EA7293D-5A1B-42D0-AB4D-F264786ABAEE}" type="parTrans" cxnId="{2268EA9C-4F11-42C2-B107-A188F155BFCA}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{27766C3B-B612-46D9-8473-1DE3DE613F33}" type="sibTrans" cxnId="{2268EA9C-4F11-42C2-B107-A188F155BFCA}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{ED4FEDB9-A269-45FB-B45A-BD320ABCAD1A}" type="pres">
+      <dgm:prSet presAssocID="{C42EEAFD-DF16-4D8C-8803-AF1824664E34}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5B839615-E90E-42E6-8407-EC335EFB9320}" type="pres">
+      <dgm:prSet presAssocID="{B446391C-BC9C-4CCC-A184-0AD9776A6F4B}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7A491665-D9B8-43DD-945D-F93263A89E3E}" type="pres">
+      <dgm:prSet presAssocID="{B446391C-BC9C-4CCC-A184-0AD9776A6F4B}" presName="parTx" presStyleLbl="alignNode1" presStyleIdx="0" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F91B0215-5195-41CC-95DC-DC9D6F02274B}" type="pres">
+      <dgm:prSet presAssocID="{B446391C-BC9C-4CCC-A184-0AD9776A6F4B}" presName="desTx" presStyleLbl="alignAccFollowNode1" presStyleIdx="0" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B0F4763A-B05F-4B2F-8C30-DDD2254BAC89}" type="pres">
+      <dgm:prSet presAssocID="{67E2418C-995E-47C5-8754-BC0D0811F864}" presName="space" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DDDD3C29-1F93-4BDB-B88E-92F766F1B499}" type="pres">
+      <dgm:prSet presAssocID="{53678EDF-39B1-463F-A016-563E204CFAF1}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{51FC659A-EDA7-486C-8C96-2868A937E60A}" type="pres">
+      <dgm:prSet presAssocID="{53678EDF-39B1-463F-A016-563E204CFAF1}" presName="parTx" presStyleLbl="alignNode1" presStyleIdx="1" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EA0B58B6-6EAD-450A-94A0-8C6C714EF878}" type="pres">
+      <dgm:prSet presAssocID="{53678EDF-39B1-463F-A016-563E204CFAF1}" presName="desTx" presStyleLbl="alignAccFollowNode1" presStyleIdx="1" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{02E0F977-998C-4540-9A1C-B2047AB799B4}" type="pres">
+      <dgm:prSet presAssocID="{E6B63DD6-C06D-4E3A-9CDF-74BCD8EC30A6}" presName="space" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{125A0DC6-7AA6-4BC0-B86F-5421AABA90E7}" type="pres">
+      <dgm:prSet presAssocID="{45165D7B-D753-4A97-BF2F-B5B133AC35B7}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0DCC83A0-6B80-4A60-9B81-9DC70FA3E8F5}" type="pres">
+      <dgm:prSet presAssocID="{45165D7B-D753-4A97-BF2F-B5B133AC35B7}" presName="parTx" presStyleLbl="alignNode1" presStyleIdx="2" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7EF1A92F-F6FB-4B59-BF2E-B67336F2DB28}" type="pres">
+      <dgm:prSet presAssocID="{45165D7B-D753-4A97-BF2F-B5B133AC35B7}" presName="desTx" presStyleLbl="alignAccFollowNode1" presStyleIdx="2" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{23206F82-85B9-4E19-B068-420BA048E11A}" type="pres">
+      <dgm:prSet presAssocID="{4856D525-BE4C-47D2-BDFF-4675D12D8674}" presName="space" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{43D76EF7-D6D8-4B1B-BB71-661DE7CF2F9D}" type="pres">
+      <dgm:prSet presAssocID="{614BE0C4-889D-4321-9034-BD68CFDE51F4}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{107891E1-4ED1-4DC1-8871-44D2508AB4E6}" type="pres">
+      <dgm:prSet presAssocID="{614BE0C4-889D-4321-9034-BD68CFDE51F4}" presName="parTx" presStyleLbl="alignNode1" presStyleIdx="3" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="0"/>
+          <dgm:chPref val="0"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0C1E2023-8C3A-49B6-ACFD-B22ED0A57CA1}" type="pres">
+      <dgm:prSet presAssocID="{614BE0C4-889D-4321-9034-BD68CFDE51F4}" presName="desTx" presStyleLbl="alignAccFollowNode1" presStyleIdx="3" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{11746000-4DAC-439E-93C8-6FC20611007E}" type="presOf" srcId="{AFCE5507-DF9D-46D1-B5E0-CDB41FC4858E}" destId="{0C1E2023-8C3A-49B6-ACFD-B22ED0A57CA1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{13D06101-A516-47D0-B58C-04F164073088}" srcId="{C42EEAFD-DF16-4D8C-8803-AF1824664E34}" destId="{614BE0C4-889D-4321-9034-BD68CFDE51F4}" srcOrd="3" destOrd="0" parTransId="{C3939D91-E577-4E7D-B664-4FF4AA74C13B}" sibTransId="{30C5556F-84E6-4ADF-90F4-5EEDF085FFB1}"/>
+    <dgm:cxn modelId="{7013E60E-D97B-47ED-B724-5C5B54F8867B}" srcId="{C42EEAFD-DF16-4D8C-8803-AF1824664E34}" destId="{53678EDF-39B1-463F-A016-563E204CFAF1}" srcOrd="1" destOrd="0" parTransId="{699682FD-8032-41B3-AAA0-A2448B7DB7C3}" sibTransId="{E6B63DD6-C06D-4E3A-9CDF-74BCD8EC30A6}"/>
+    <dgm:cxn modelId="{2C17A728-F84F-48AF-8399-0EEF6752C9AC}" type="presOf" srcId="{45165D7B-D753-4A97-BF2F-B5B133AC35B7}" destId="{0DCC83A0-6B80-4A60-9B81-9DC70FA3E8F5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{3C73AE2A-EBB0-43ED-B033-FE75AC1AC3BA}" type="presOf" srcId="{8AFBADF3-4607-464F-A08B-80CCC111A593}" destId="{F91B0215-5195-41CC-95DC-DC9D6F02274B}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{5B70872C-F8F3-4BDC-9FED-27DF2FFDAE97}" type="presOf" srcId="{1B0CC25B-3EC5-4CB1-B60C-0CB3A870F546}" destId="{0C1E2023-8C3A-49B6-ACFD-B22ED0A57CA1}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{5C2A2E2E-254D-47C2-8D71-40E0C6574958}" type="presOf" srcId="{16D41ED0-433C-4F69-8547-262EA774B788}" destId="{EA0B58B6-6EAD-450A-94A0-8C6C714EF878}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{5332C630-8927-4D04-9DA7-B5CD1612BCAD}" type="presOf" srcId="{5FF7C39F-3345-41DB-8976-D450411524DB}" destId="{7EF1A92F-F6FB-4B59-BF2E-B67336F2DB28}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{9B3EBC33-7941-43F1-954E-8B398FD31C64}" srcId="{B446391C-BC9C-4CCC-A184-0AD9776A6F4B}" destId="{07D52DD3-A326-4608-AEF4-E373F7490592}" srcOrd="1" destOrd="0" parTransId="{058CCD2F-0E6A-4E1D-A08D-8982EB5B1CA2}" sibTransId="{447318B2-6026-4FDD-ADC7-0325667F597A}"/>
+    <dgm:cxn modelId="{16316C42-CAC4-48C7-B843-FBDAE01BC8FA}" srcId="{B446391C-BC9C-4CCC-A184-0AD9776A6F4B}" destId="{83B2A943-28C0-45B7-B81E-4DA3C1B6A33B}" srcOrd="0" destOrd="0" parTransId="{3551147F-044F-4CD6-80DF-FDA5DE22B349}" sibTransId="{8D3FEB8B-4D90-4063-999F-9319B8895376}"/>
+    <dgm:cxn modelId="{07395843-0B51-4AB2-9CA5-7C56448A8007}" type="presOf" srcId="{4E63BFE6-36E1-4E89-9436-774CF5739D5A}" destId="{EA0B58B6-6EAD-450A-94A0-8C6C714EF878}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{89035453-0F87-4D27-8917-21EA1B51D4DB}" type="presOf" srcId="{614BE0C4-889D-4321-9034-BD68CFDE51F4}" destId="{107891E1-4ED1-4DC1-8871-44D2508AB4E6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{4510AB54-BC98-4946-AD6C-24C22266C2A4}" type="presOf" srcId="{B446391C-BC9C-4CCC-A184-0AD9776A6F4B}" destId="{7A491665-D9B8-43DD-945D-F93263A89E3E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{9724B959-E91D-4B78-8590-B75DBEBD3FAD}" srcId="{614BE0C4-889D-4321-9034-BD68CFDE51F4}" destId="{AFCE5507-DF9D-46D1-B5E0-CDB41FC4858E}" srcOrd="0" destOrd="0" parTransId="{E884CAF5-691B-4064-885A-C957DA443389}" sibTransId="{2C480605-D0A3-4391-AABE-007CA2201F14}"/>
+    <dgm:cxn modelId="{6EB3B38C-D699-4650-8E2B-BEC634F96F12}" srcId="{53678EDF-39B1-463F-A016-563E204CFAF1}" destId="{16D41ED0-433C-4F69-8547-262EA774B788}" srcOrd="1" destOrd="0" parTransId="{FF3E9AD2-31DD-401B-B443-1F3FC0085925}" sibTransId="{B1EAB3F9-2286-471C-BFA9-B3A7C02CDE31}"/>
+    <dgm:cxn modelId="{A7C49E95-C033-496E-84F3-B111AA8943F6}" type="presOf" srcId="{83B2A943-28C0-45B7-B81E-4DA3C1B6A33B}" destId="{F91B0215-5195-41CC-95DC-DC9D6F02274B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{A5ADEB95-4D03-44EB-9936-99575FF1F8BA}" type="presOf" srcId="{F6B1B2C7-DFA9-4153-9572-17D4E38F829B}" destId="{0C1E2023-8C3A-49B6-ACFD-B22ED0A57CA1}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{2268EA9C-4F11-42C2-B107-A188F155BFCA}" srcId="{614BE0C4-889D-4321-9034-BD68CFDE51F4}" destId="{F6B1B2C7-DFA9-4153-9572-17D4E38F829B}" srcOrd="2" destOrd="0" parTransId="{9EA7293D-5A1B-42D0-AB4D-F264786ABAEE}" sibTransId="{27766C3B-B612-46D9-8473-1DE3DE613F33}"/>
+    <dgm:cxn modelId="{34F872A0-FD0A-4B72-987B-B9422EC4E59E}" srcId="{B446391C-BC9C-4CCC-A184-0AD9776A6F4B}" destId="{A0B7F971-0952-4EEF-BB06-815FB703109D}" srcOrd="2" destOrd="0" parTransId="{742877F0-F4DD-403A-9E7B-FDE40B810F3A}" sibTransId="{4602781B-1F85-4DB1-A4E2-B9FD40CDD18A}"/>
+    <dgm:cxn modelId="{99E4C3A8-3CBC-40E9-9AAA-1C121C5DDAB9}" srcId="{45165D7B-D753-4A97-BF2F-B5B133AC35B7}" destId="{64D0B83E-818B-4B2F-819A-CD561AA562C8}" srcOrd="0" destOrd="0" parTransId="{CF08D122-86DB-4A2E-89C3-1C811527C501}" sibTransId="{DA4A54DE-14D6-429B-993D-CCFF358DBE95}"/>
+    <dgm:cxn modelId="{08DEA7AA-08E9-4E74-BD12-C132482AF6C3}" srcId="{C42EEAFD-DF16-4D8C-8803-AF1824664E34}" destId="{45165D7B-D753-4A97-BF2F-B5B133AC35B7}" srcOrd="2" destOrd="0" parTransId="{EFA62CA2-49E9-48E8-A0ED-457E74B645EF}" sibTransId="{4856D525-BE4C-47D2-BDFF-4675D12D8674}"/>
+    <dgm:cxn modelId="{B75048B0-9BA5-4F68-B1A3-7532305D2093}" type="presOf" srcId="{64D0B83E-818B-4B2F-819A-CD561AA562C8}" destId="{7EF1A92F-F6FB-4B59-BF2E-B67336F2DB28}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{45D1C7B3-28B1-4991-9696-89C4476DC536}" srcId="{B446391C-BC9C-4CCC-A184-0AD9776A6F4B}" destId="{8AFBADF3-4607-464F-A08B-80CCC111A593}" srcOrd="3" destOrd="0" parTransId="{37BE6B72-791F-4987-BE60-F7FA39239B7B}" sibTransId="{D72FD524-C240-488B-9F91-5D85C1EC2C89}"/>
+    <dgm:cxn modelId="{ABE4FFC6-2689-4C1E-A669-ABC3F61DE60C}" srcId="{C42EEAFD-DF16-4D8C-8803-AF1824664E34}" destId="{B446391C-BC9C-4CCC-A184-0AD9776A6F4B}" srcOrd="0" destOrd="0" parTransId="{09E1E16B-757A-424C-B22F-F49869C295BC}" sibTransId="{67E2418C-995E-47C5-8754-BC0D0811F864}"/>
+    <dgm:cxn modelId="{692908C8-E062-4219-AAC5-09CC646008EE}" type="presOf" srcId="{53678EDF-39B1-463F-A016-563E204CFAF1}" destId="{51FC659A-EDA7-486C-8C96-2868A937E60A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{0D612FCB-D494-426B-82F3-EE3CC12FA384}" type="presOf" srcId="{C42EEAFD-DF16-4D8C-8803-AF1824664E34}" destId="{ED4FEDB9-A269-45FB-B45A-BD320ABCAD1A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{3C03B8D0-E940-4FF3-B6F6-72D015446A49}" type="presOf" srcId="{A0B7F971-0952-4EEF-BB06-815FB703109D}" destId="{F91B0215-5195-41CC-95DC-DC9D6F02274B}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{C76E1EDD-DF80-41EB-8553-9B5145BB3200}" srcId="{53678EDF-39B1-463F-A016-563E204CFAF1}" destId="{4E63BFE6-36E1-4E89-9436-774CF5739D5A}" srcOrd="0" destOrd="0" parTransId="{75F0D908-548C-4F57-BA37-40CCD8231F16}" sibTransId="{A5C9728A-CDDA-483F-92D3-8CDD1D03360A}"/>
+    <dgm:cxn modelId="{5CEBAAE0-5549-4903-9806-3722CFF1918A}" srcId="{614BE0C4-889D-4321-9034-BD68CFDE51F4}" destId="{1B0CC25B-3EC5-4CB1-B60C-0CB3A870F546}" srcOrd="1" destOrd="0" parTransId="{76623D5F-7EB0-4068-9DB8-D4CE4F813862}" sibTransId="{A88BB6C5-0CB2-45F6-8C96-FD997FA6644E}"/>
+    <dgm:cxn modelId="{AF1060EA-6D3A-4BCE-B56C-F1B377BC58B8}" type="presOf" srcId="{07D52DD3-A326-4608-AEF4-E373F7490592}" destId="{F91B0215-5195-41CC-95DC-DC9D6F02274B}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{847ACDEC-B43D-432B-862C-45A9E22C2D62}" srcId="{45165D7B-D753-4A97-BF2F-B5B133AC35B7}" destId="{5FF7C39F-3345-41DB-8976-D450411524DB}" srcOrd="1" destOrd="0" parTransId="{00071798-4E2A-4910-B2C5-55219587BCEB}" sibTransId="{BDE3B723-D02E-4AAE-9CFD-310469B2ECD7}"/>
+    <dgm:cxn modelId="{3753AE36-F306-4646-A5A1-99D8B64CB2FF}" type="presParOf" srcId="{ED4FEDB9-A269-45FB-B45A-BD320ABCAD1A}" destId="{5B839615-E90E-42E6-8407-EC335EFB9320}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{8D4DF651-1844-45F2-93DA-600F12F63930}" type="presParOf" srcId="{5B839615-E90E-42E6-8407-EC335EFB9320}" destId="{7A491665-D9B8-43DD-945D-F93263A89E3E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{B841336C-9839-4AEA-8409-7C0BD230DC0B}" type="presParOf" srcId="{5B839615-E90E-42E6-8407-EC335EFB9320}" destId="{F91B0215-5195-41CC-95DC-DC9D6F02274B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{CA0AF47B-E7B1-41E7-85FB-C52384BF2E4C}" type="presParOf" srcId="{ED4FEDB9-A269-45FB-B45A-BD320ABCAD1A}" destId="{B0F4763A-B05F-4B2F-8C30-DDD2254BAC89}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{3742B075-5E6F-42E8-84FA-2175C3783711}" type="presParOf" srcId="{ED4FEDB9-A269-45FB-B45A-BD320ABCAD1A}" destId="{DDDD3C29-1F93-4BDB-B88E-92F766F1B499}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{DBF43A77-6C1D-4345-ABAC-85774D1FED7B}" type="presParOf" srcId="{DDDD3C29-1F93-4BDB-B88E-92F766F1B499}" destId="{51FC659A-EDA7-486C-8C96-2868A937E60A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{BEFEDADD-FD2E-4576-AA26-E3C61CEB921C}" type="presParOf" srcId="{DDDD3C29-1F93-4BDB-B88E-92F766F1B499}" destId="{EA0B58B6-6EAD-450A-94A0-8C6C714EF878}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{CE677E33-F4DD-430E-BA11-DB008B4BF1EF}" type="presParOf" srcId="{ED4FEDB9-A269-45FB-B45A-BD320ABCAD1A}" destId="{02E0F977-998C-4540-9A1C-B2047AB799B4}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{9852D814-7327-4449-A3EC-3ADCB3E8FFB7}" type="presParOf" srcId="{ED4FEDB9-A269-45FB-B45A-BD320ABCAD1A}" destId="{125A0DC6-7AA6-4BC0-B86F-5421AABA90E7}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{6136D60A-5E87-4BB0-B401-171AFE9256FA}" type="presParOf" srcId="{125A0DC6-7AA6-4BC0-B86F-5421AABA90E7}" destId="{0DCC83A0-6B80-4A60-9B81-9DC70FA3E8F5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{73F89BC6-D119-452D-AC89-E13A8C71AB58}" type="presParOf" srcId="{125A0DC6-7AA6-4BC0-B86F-5421AABA90E7}" destId="{7EF1A92F-F6FB-4B59-BF2E-B67336F2DB28}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{18408F4F-8C48-4C5D-B6D3-F1C947A43D33}" type="presParOf" srcId="{ED4FEDB9-A269-45FB-B45A-BD320ABCAD1A}" destId="{23206F82-85B9-4E19-B068-420BA048E11A}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{181D70EB-8FE5-41E3-AC73-B5B22397CFE1}" type="presParOf" srcId="{ED4FEDB9-A269-45FB-B45A-BD320ABCAD1A}" destId="{43D76EF7-D6D8-4B1B-BB71-661DE7CF2F9D}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{0BEB68E0-AD93-444F-9809-0BDC641042C0}" type="presParOf" srcId="{43D76EF7-D6D8-4B1B-BB71-661DE7CF2F9D}" destId="{107891E1-4ED1-4DC1-8871-44D2508AB4E6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+    <dgm:cxn modelId="{CCD98F45-E28B-4D33-83CE-0B5A09BB4670}" type="presParOf" srcId="{43D76EF7-D6D8-4B1B-BB71-661DE7CF2F9D}" destId="{0C1E2023-8C3A-49B6-ACFD-B22ED0A57CA1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hList1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{7A491665-D9B8-43DD-945D-F93263A89E3E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3838" y="17039"/>
+          <a:ext cx="2308233" cy="777600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="99568" tIns="56896" rIns="99568" bIns="56896" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" kern="1200"/>
+            <a:t>MUST</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3838" y="17039"/>
+        <a:ext cx="2308233" cy="777600"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F91B0215-5195-41CC-95DC-DC9D6F02274B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3838" y="794639"/>
+          <a:ext cx="2308233" cy="1185840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="90000"/>
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:alpha val="90000"/>
+              <a:tint val="40000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="74676" tIns="74676" rIns="99568" bIns="112014" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" kern="1200"/>
+            <a:t>Set preferences</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" kern="1200"/>
+            <a:t>Scan Product</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" kern="1200"/>
+            <a:t>Warnings</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" kern="1200"/>
+            <a:t>View basket</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3838" y="794639"/>
+        <a:ext cx="2308233" cy="1185840"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{51FC659A-EDA7-486C-8C96-2868A937E60A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2635224" y="17039"/>
+          <a:ext cx="2308233" cy="777600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="99568" tIns="56896" rIns="99568" bIns="56896" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" kern="1200"/>
+            <a:t>SHOULD</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2635224" y="17039"/>
+        <a:ext cx="2308233" cy="777600"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{EA0B58B6-6EAD-450A-94A0-8C6C714EF878}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2635224" y="794639"/>
+          <a:ext cx="2308233" cy="1185840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="90000"/>
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:alpha val="90000"/>
+              <a:tint val="40000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="74676" tIns="74676" rIns="99568" bIns="112014" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" kern="1200"/>
+            <a:t>Edit basket</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" kern="1200"/>
+            <a:t>Recommendations</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2635224" y="794639"/>
+        <a:ext cx="2308233" cy="1185840"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{0DCC83A0-6B80-4A60-9B81-9DC70FA3E8F5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5266610" y="17039"/>
+          <a:ext cx="2308233" cy="777600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="99568" tIns="56896" rIns="99568" bIns="56896" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" kern="1200"/>
+            <a:t>COULD</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5266610" y="17039"/>
+        <a:ext cx="2308233" cy="777600"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7EF1A92F-F6FB-4B59-BF2E-B67336F2DB28}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5266610" y="794639"/>
+          <a:ext cx="2308233" cy="1185840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="90000"/>
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:alpha val="90000"/>
+              <a:tint val="40000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="74676" tIns="74676" rIns="99568" bIns="112014" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" kern="1200"/>
+            <a:t>Shopping list</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" kern="1200"/>
+            <a:t>Payment option</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5266610" y="794639"/>
+        <a:ext cx="2308233" cy="1185840"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{107891E1-4ED1-4DC1-8871-44D2508AB4E6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7897996" y="17039"/>
+          <a:ext cx="2308233" cy="777600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="99568" tIns="56896" rIns="99568" bIns="56896" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" kern="1200"/>
+            <a:t>WOULD NOT</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7897996" y="17039"/>
+        <a:ext cx="2308233" cy="777600"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{0C1E2023-8C3A-49B6-ACFD-B22ED0A57CA1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7897996" y="794639"/>
+          <a:ext cx="2308233" cy="1185840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="90000"/>
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:alpha val="90000"/>
+              <a:tint val="40000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="74676" tIns="74676" rIns="99568" bIns="112014" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" kern="1200"/>
+            <a:t>Hide product categories</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" kern="1200"/>
+            <a:t>Locate products</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" kern="1200"/>
+            <a:t>Navigation</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7897996" y="794639"/>
+        <a:ext cx="2308233" cy="1185840"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hList1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="list" pri="5000"/>
+    <dgm:cat type="convert" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="32">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="3" destId="32" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="lin"/>
+      </dgm:if>
+      <dgm:else name="Name3">
+        <dgm:alg type="lin">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="ch" forName="composite" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="composite" refType="w"/>
+      <dgm:constr type="w" for="des" forName="parTx"/>
+      <dgm:constr type="h" for="des" forName="parTx" op="equ"/>
+      <dgm:constr type="w" for="des" forName="desTx"/>
+      <dgm:constr type="h" for="des" forName="desTx" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" forName="parTx" val="65"/>
+      <dgm:constr type="secFontSz" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" op="equ"/>
+      <dgm:constr type="h" for="des" forName="parTx" refType="primFontSz" refFor="des" refForName="parTx" fact="0.8"/>
+      <dgm:constr type="h" for="des" forName="desTx" refType="primFontSz" refFor="des" refForName="parTx" fact="1.22"/>
+      <dgm:constr type="w" for="ch" forName="space" refType="w" refFor="ch" refForName="composite" op="equ" fact="0.14"/>
+    </dgm:constrLst>
+    <dgm:ruleLst>
+      <dgm:rule type="w" for="ch" forName="composite" val="0" fact="NaN" max="NaN"/>
+      <dgm:rule type="primFontSz" for="des" forName="parTx" val="5" fact="NaN" max="NaN"/>
+    </dgm:ruleLst>
+    <dgm:forEach name="Name4" axis="ch" ptType="node">
+      <dgm:layoutNode name="composite">
+        <dgm:alg type="composite"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="l" for="ch" forName="parTx"/>
+          <dgm:constr type="w" for="ch" forName="parTx" refType="w"/>
+          <dgm:constr type="t" for="ch" forName="parTx"/>
+          <dgm:constr type="l" for="ch" forName="desTx"/>
+          <dgm:constr type="w" for="ch" forName="desTx" refType="w" refFor="ch" refForName="parTx"/>
+          <dgm:constr type="t" for="ch" forName="desTx" refType="h" refFor="ch" refForName="parTx"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+        <dgm:layoutNode name="parTx" styleLbl="alignNode1">
+          <dgm:varLst>
+            <dgm:chMax val="0"/>
+            <dgm:chPref val="0"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="h" refType="w" op="lte" fact="0.4"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.32"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.32"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="desTx" styleLbl="alignAccFollowNode1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx">
+            <dgm:param type="stBulletLvl" val="1"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="des" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="secFontSz" val="65"/>
+            <dgm:constr type="primFontSz" refType="secFontSz"/>
+            <dgm:constr type="h"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.42"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.63"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:layoutNode>
+      <dgm:forEach name="Name5" axis="followSib" ptType="sibTrans" cnt="1">
+        <dgm:layoutNode name="space">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2979420</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB2AF303-DEBB-22C9-EC4A-EAFEB81FE226}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,235 +4302,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="146" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="66.140625" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="F2" t="s">
+    <row r="1" spans="1:7" ht="15.95" thickBot="1">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="19">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="19">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="19">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="19">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="19">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="12" spans="1:7" ht="15.95" thickBot="1">
+      <c r="A12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="19">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+      <sortCondition ref="G1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
